--- a/ганта проекта.xlsx
+++ b/ганта проекта.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>задача</t>
   </si>
@@ -57,6 +57,30 @@
   </si>
   <si>
     <t xml:space="preserve">создание проекта </t>
+  </si>
+  <si>
+    <t>исполнители</t>
+  </si>
+  <si>
+    <t>Тхагазитов Эльдар</t>
+  </si>
+  <si>
+    <t>Плотников Владимир</t>
+  </si>
+  <si>
+    <t>Ерилеев Сергей</t>
+  </si>
+  <si>
+    <t>Исмоилова Лейла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">разработчик </t>
+  </si>
+  <si>
+    <t>проектировщик</t>
+  </si>
+  <si>
+    <t>дизайнер</t>
   </si>
 </sst>
 </file>
@@ -312,6 +336,49 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-71EA-48EC-8B5A-DC6D61ECF80B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>исполнители</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-71EA-48EC-8B5A-DC6D61ECF80B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1324,21 +1391,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1351,8 +1420,11 @@
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1366,8 +1438,14 @@
         <f>C2-B2</f>
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1381,8 +1459,14 @@
         <f t="shared" ref="D3:D8" si="0">C3-B3</f>
         <v>2</v>
       </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1396,8 +1480,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1411,8 +1501,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1442,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1457,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>45208</v>
       </c>

--- a/ганта проекта.xlsx
+++ b/ганта проекта.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\ИСП 411\Ерилеев\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\вова спит\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,9 +65,6 @@
     <t>Тхагазитов Эльдар</t>
   </si>
   <si>
-    <t>Плотников Владимир</t>
-  </si>
-  <si>
     <t>Ерилеев Сергей</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>дизайнер</t>
+  </si>
+  <si>
+    <t>Зенькин Никита</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1394,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,7 +1442,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1460,10 +1460,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1481,10 +1481,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1502,10 +1502,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">

--- a/ганта проекта.xlsx
+++ b/ганта проекта.xlsx
@@ -232,22 +232,22 @@
                   <c:v>45208</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45209</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45212</c:v>
+                  <c:v>45213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45215</c:v>
+                  <c:v>45219</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45219</c:v>
+                  <c:v>45224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45220</c:v>
+                  <c:v>45226</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45222</c:v>
+                  <c:v>45229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -313,7 +313,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -325,10 +325,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,7 +1394,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,14 +1450,14 @@
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="C3" s="3">
-        <v>45211</v>
+        <v>45212</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D8" si="0">C3-B3</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1471,10 +1471,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>45212</v>
+        <v>45213</v>
       </c>
       <c r="C4" s="3">
-        <v>45213</v>
+        <v>45214</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -1492,10 +1492,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>45215</v>
+        <v>45219</v>
       </c>
       <c r="C5" s="3">
-        <v>45219</v>
+        <v>45223</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -1513,10 +1513,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C6" s="3">
-        <v>45220</v>
+        <v>45225</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -1528,14 +1528,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>45220</v>
+        <v>45226</v>
       </c>
       <c r="C7" s="3">
-        <v>45221</v>
+        <v>45228</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1543,14 +1543,14 @@
         <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>45222</v>
+        <v>45229</v>
       </c>
       <c r="C8" s="3">
-        <v>45222</v>
+        <v>45231</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
